--- a/data/RawData/ObsData/2009-2022/2021/01-07-2021.xlsx
+++ b/data/RawData/ObsData/2009-2022/2021/01-07-2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\Groups\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2009-2022\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC76DB6-F8CE-421B-B2A4-DC2E03550CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D56B32-9770-4D2F-8E2D-7B02FFCCD114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="568">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3853,33 +3853,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="114" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A71" sqref="A1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="114" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="4.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="21" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="1" customWidth="1"/>
     <col min="9" max="9" width="1" style="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="4.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="1" customWidth="1"/>
-    <col min="18" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="1" customWidth="1"/>
+    <col min="18" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>529</v>
       </c>
@@ -3902,7 +3902,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="145"/>
       <c r="B2" s="146"/>
       <c r="C2" s="133"/>
@@ -3921,7 +3921,7 @@
       <c r="P2" s="11"/>
       <c r="Q2" s="13"/>
     </row>
-    <row r="3" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="148" t="s">
         <v>32</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="13"/>
     </row>
-    <row r="4" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55" t="s">
         <v>1</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>62</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>4909</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="94"/>
       <c r="B6" s="86" t="s">
         <v>361</v>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="Q6" s="51"/>
     </row>
-    <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="94"/>
       <c r="B7" s="86" t="s">
         <v>366</v>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="Q7" s="13"/>
     </row>
-    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="94"/>
       <c r="B8" s="86" t="s">
         <v>61</v>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="Q8" s="13"/>
     </row>
-    <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="94"/>
       <c r="B9" s="86" t="s">
         <v>476</v>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="Q9" s="13"/>
     </row>
-    <row r="10" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="98"/>
       <c r="B10" s="99" t="s">
         <v>477</v>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="Q10" s="111"/>
     </row>
-    <row r="11" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="108"/>
       <c r="B11" s="29" t="s">
         <v>0</v>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="Q11" s="13"/>
     </row>
-    <row r="12" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="81" t="s">
         <v>422</v>
       </c>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="Q12" s="17"/>
     </row>
-    <row r="13" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" s="32" t="s">
         <v>55</v>
@@ -4354,7 +4354,7 @@
       <c r="P13" s="29"/>
       <c r="Q13" s="70"/>
     </row>
-    <row r="14" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="55" t="s">
         <v>0</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>4745</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>69</v>
       </c>
@@ -4440,7 +4440,7 @@
       </c>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="11" t="s">
         <v>72</v>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="Q16" s="162"/>
     </row>
-    <row r="17" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>0</v>
       </c>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="94"/>
       <c r="B18" s="86" t="s">
         <v>89</v>
@@ -4575,7 +4575,7 @@
         <v>4756</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>423</v>
       </c>
@@ -4620,7 +4620,7 @@
       </c>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="11" t="s">
         <v>364</v>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="1:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
       <c r="B21" s="99" t="s">
         <v>387</v>
@@ -4694,7 +4694,7 @@
       <c r="P21" s="167"/>
       <c r="Q21" s="70"/>
     </row>
-    <row r="22" spans="1:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="55"/>
       <c r="B22" s="136"/>
       <c r="C22" s="136"/>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="Q22" s="171"/>
     </row>
-    <row r="23" spans="1:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="172" t="s">
         <v>544</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="176" t="s">
         <v>545</v>
       </c>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="AA24" s="125"/>
     </row>
-    <row r="25" spans="1:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>0</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>4651</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="178"/>
       <c r="B26" s="126"/>
       <c r="C26" s="126"/>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="Q26" s="101"/>
     </row>
-    <row r="27" spans="1:27" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="148" t="s">
         <v>358</v>
       </c>
@@ -4906,7 +4906,7 @@
       <c r="P27" s="136"/>
       <c r="Q27" s="180"/>
     </row>
-    <row r="28" spans="1:27" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
         <v>485</v>
       </c>
@@ -4930,7 +4930,9 @@
       </c>
       <c r="H28" s="93"/>
       <c r="I28" s="156"/>
-      <c r="J28" s="31"/>
+      <c r="J28" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="K28" s="82" t="s">
         <v>57</v>
       </c>
@@ -4951,7 +4953,7 @@
       </c>
       <c r="Q28" s="93"/>
     </row>
-    <row r="29" spans="1:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="86" t="s">
         <v>382</v>
@@ -4974,7 +4976,7 @@
       <c r="H29" s="96"/>
       <c r="I29" s="156"/>
       <c r="J29" s="22" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K29" s="32" t="s">
         <v>365</v>
@@ -4996,7 +4998,7 @@
       </c>
       <c r="Q29" s="101"/>
     </row>
-    <row r="30" spans="1:27" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="86" t="s">
         <v>383</v>
@@ -5029,7 +5031,7 @@
       <c r="P30" s="136"/>
       <c r="Q30" s="180"/>
     </row>
-    <row r="31" spans="1:27" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22"/>
       <c r="B31" s="99" t="s">
         <v>385</v>
@@ -5076,7 +5078,7 @@
         <v>4644</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="188"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
@@ -5110,7 +5112,7 @@
         <v>4782</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
         <v>102</v>
       </c>
@@ -5157,7 +5159,7 @@
       </c>
       <c r="Q33" s="51"/>
     </row>
-    <row r="34" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>0</v>
       </c>
@@ -5206,7 +5208,7 @@
       </c>
       <c r="Q34" s="192"/>
     </row>
-    <row r="35" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>0</v>
       </c>
@@ -5253,7 +5255,7 @@
       </c>
       <c r="Q35" s="45"/>
     </row>
-    <row r="36" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
       <c r="B36" s="11" t="s">
         <v>117</v>
@@ -5286,7 +5288,7 @@
       <c r="P36" s="56"/>
       <c r="Q36" s="152"/>
     </row>
-    <row r="37" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="11" t="s">
         <v>123</v>
@@ -5333,7 +5335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="11" t="s">
         <v>127</v>
@@ -5378,7 +5380,7 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>0</v>
       </c>
@@ -5423,7 +5425,7 @@
       </c>
       <c r="Q39" s="96"/>
     </row>
-    <row r="40" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
         <v>0</v>
       </c>
@@ -5470,7 +5472,7 @@
       </c>
       <c r="Q40" s="96"/>
     </row>
-    <row r="41" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="55"/>
       <c r="B41" s="56"/>
       <c r="C41" s="56"/>
@@ -5503,7 +5505,7 @@
       </c>
       <c r="Q41" s="96"/>
     </row>
-    <row r="42" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
         <v>496</v>
       </c>
@@ -5548,7 +5550,7 @@
       </c>
       <c r="Q42" s="96"/>
     </row>
-    <row r="43" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
       <c r="B43" s="11" t="s">
         <v>384</v>
@@ -5591,7 +5593,7 @@
       </c>
       <c r="Q43" s="101"/>
     </row>
-    <row r="44" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="11" t="s">
         <v>497</v>
@@ -5624,7 +5626,7 @@
       <c r="P44" s="85"/>
       <c r="Q44" s="66"/>
     </row>
-    <row r="45" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="22"/>
       <c r="B45" s="32" t="s">
         <v>498</v>
@@ -5657,7 +5659,7 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="18"/>
     </row>
-    <row r="46" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="55"/>
       <c r="B46" s="57"/>
       <c r="C46" s="87"/>
@@ -5690,7 +5692,7 @@
       </c>
       <c r="Q46" s="66"/>
     </row>
-    <row r="47" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="131" t="s">
         <v>530</v>
       </c>
@@ -5723,7 +5725,7 @@
       </c>
       <c r="Q47" s="51"/>
     </row>
-    <row r="48" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
         <v>396</v>
       </c>
@@ -5768,7 +5770,7 @@
       </c>
       <c r="Q48" s="51"/>
     </row>
-    <row r="49" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="86" t="s">
         <v>398</v>
@@ -5813,7 +5815,7 @@
       </c>
       <c r="Q49" s="51"/>
     </row>
-    <row r="50" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="86" t="s">
         <v>399</v>
@@ -5856,7 +5858,7 @@
       </c>
       <c r="Q50" s="51"/>
     </row>
-    <row r="51" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22"/>
       <c r="B51" s="99" t="s">
         <v>404</v>
@@ -5899,7 +5901,7 @@
       </c>
       <c r="Q51" s="51"/>
     </row>
-    <row r="52" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="108"/>
       <c r="B52" s="127"/>
       <c r="C52" s="127"/>
@@ -5930,7 +5932,7 @@
       </c>
       <c r="Q52" s="96"/>
     </row>
-    <row r="53" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
         <v>566</v>
       </c>
@@ -5975,7 +5977,7 @@
       </c>
       <c r="Q53" s="101"/>
     </row>
-    <row r="54" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="B54" s="11" t="s">
         <v>402</v>
@@ -6008,7 +6010,7 @@
       <c r="P54" s="29"/>
       <c r="Q54" s="70"/>
     </row>
-    <row r="55" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="11" t="s">
         <v>403</v>
@@ -6055,7 +6057,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="44"/>
       <c r="B56" s="32" t="s">
         <v>405</v>
@@ -6097,7 +6099,7 @@
       </c>
       <c r="Q56" s="194"/>
     </row>
-    <row r="57" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="63"/>
       <c r="B57" s="29"/>
       <c r="C57" s="29"/>
@@ -6130,7 +6132,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -6161,7 +6163,7 @@
       </c>
       <c r="Q58" s="13"/>
     </row>
-    <row r="59" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="44"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -6192,7 +6194,7 @@
       </c>
       <c r="Q59" s="17"/>
     </row>
-    <row r="60" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="29"/>
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
@@ -6211,7 +6213,7 @@
       <c r="P60" s="29"/>
       <c r="Q60" s="70"/>
     </row>
-    <row r="61" spans="1:22" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:22" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="116" t="s">
         <v>530</v>
       </c>
@@ -6234,7 +6236,7 @@
       <c r="P61" s="37"/>
       <c r="Q61" s="80"/>
     </row>
-    <row r="62" spans="1:22" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:22" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="153" t="s">
         <v>1</v>
       </c>
@@ -6285,7 +6287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="65" t="s">
         <v>427</v>
       </c>
@@ -6332,7 +6334,7 @@
       </c>
       <c r="Q63" s="48"/>
     </row>
-    <row r="64" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="86" t="s">
         <v>429</v>
@@ -6378,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="B65" s="86" t="s">
         <v>430</v>
@@ -6424,7 +6426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="86" t="s">
         <v>431</v>
@@ -6467,7 +6469,7 @@
       </c>
       <c r="Q66" s="51"/>
     </row>
-    <row r="67" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="11" t="s">
         <v>432</v>
@@ -6510,7 +6512,7 @@
       </c>
       <c r="Q67" s="51"/>
     </row>
-    <row r="68" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="102"/>
       <c r="B68" s="99" t="s">
         <v>433</v>
@@ -6547,7 +6549,7 @@
       </c>
       <c r="Q68" s="51"/>
     </row>
-    <row r="69" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="98"/>
       <c r="B69" s="99" t="s">
         <v>507</v>
@@ -6584,7 +6586,7 @@
       </c>
       <c r="Q69" s="51"/>
     </row>
-    <row r="70" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="63"/>
       <c r="B70" s="29"/>
       <c r="C70" s="29"/>
@@ -6611,7 +6613,7 @@
       </c>
       <c r="Q70" s="49"/>
     </row>
-    <row r="71" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="16" t="s">
         <v>478</v>
       </c>
@@ -6652,7 +6654,7 @@
       </c>
       <c r="Q71" s="52"/>
     </row>
-    <row r="72" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="15"/>
       <c r="B72" s="10" t="s">
         <v>481</v>
@@ -6683,7 +6685,7 @@
       <c r="P72" s="105"/>
       <c r="Q72" s="208"/>
     </row>
-    <row r="73" spans="1:20" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:20" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="15"/>
       <c r="B73" s="10" t="s">
         <v>482</v>
@@ -6716,7 +6718,7 @@
       <c r="P73" s="212"/>
       <c r="Q73" s="213"/>
     </row>
-    <row r="74" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="10" t="s">
         <v>483</v>
@@ -6761,7 +6763,7 @@
       </c>
       <c r="Q74" s="93"/>
     </row>
-    <row r="75" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
       <c r="B75" s="10" t="s">
         <v>66</v>
@@ -6802,7 +6804,7 @@
       </c>
       <c r="Q75" s="13"/>
     </row>
-    <row r="76" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
       <c r="B76" s="10" t="s">
         <v>66</v>
@@ -6843,7 +6845,7 @@
       </c>
       <c r="Q76" s="13"/>
     </row>
-    <row r="77" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="44"/>
       <c r="B77" s="20" t="s">
         <v>66</v>
@@ -6882,7 +6884,7 @@
       </c>
       <c r="Q77" s="51"/>
     </row>
-    <row r="78" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="63"/>
       <c r="B78" s="29"/>
       <c r="C78" s="104"/>
@@ -6913,7 +6915,7 @@
       </c>
       <c r="Q78" s="45"/>
     </row>
-    <row r="79" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="81" t="s">
         <v>523</v>
       </c>
@@ -6946,7 +6948,7 @@
       <c r="P79" s="10"/>
       <c r="Q79" s="51"/>
     </row>
-    <row r="80" spans="1:20" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:20" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="94"/>
       <c r="B80" s="86" t="s">
         <v>524</v>
@@ -6979,7 +6981,7 @@
       <c r="P80" s="29"/>
       <c r="Q80" s="70"/>
     </row>
-    <row r="81" spans="1:17" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A81" s="94"/>
       <c r="B81" s="86" t="s">
         <v>479</v>
@@ -7024,7 +7026,7 @@
       </c>
       <c r="Q81" s="9"/>
     </row>
-    <row r="82" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="94"/>
       <c r="B82" s="86" t="s">
         <v>528</v>
@@ -7069,7 +7071,7 @@
         <v>4604</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
       <c r="B83" s="10" t="s">
         <v>66</v>
@@ -7104,7 +7106,7 @@
       </c>
       <c r="Q83" s="13"/>
     </row>
-    <row r="84" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="44"/>
       <c r="B84" s="20" t="s">
         <v>66</v>
@@ -7139,7 +7141,7 @@
       </c>
       <c r="Q84" s="13"/>
     </row>
-    <row r="85" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="108"/>
       <c r="B85" s="104"/>
       <c r="C85" s="103"/>
@@ -7170,7 +7172,7 @@
       </c>
       <c r="Q85" s="13"/>
     </row>
-    <row r="86" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="253" t="s">
         <v>426</v>
       </c>
@@ -7203,7 +7205,7 @@
       </c>
       <c r="Q86" s="17"/>
     </row>
-    <row r="87" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="42" t="s">
         <v>295</v>
       </c>
@@ -7238,7 +7240,7 @@
       <c r="P87" s="127"/>
       <c r="Q87" s="192"/>
     </row>
-    <row r="88" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="12"/>
       <c r="B88" s="11" t="s">
         <v>31</v>
@@ -7263,7 +7265,7 @@
       <c r="P88" s="29"/>
       <c r="Q88" s="70"/>
     </row>
-    <row r="89" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="12"/>
       <c r="B89" s="11" t="s">
         <v>31</v>
@@ -7302,7 +7304,7 @@
         <v>4845</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
       <c r="B90" s="11" t="s">
         <v>31</v>
@@ -7339,7 +7341,7 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="94"/>
       <c r="B91" s="86" t="s">
         <v>515</v>
@@ -7376,7 +7378,7 @@
       </c>
       <c r="Q91" s="96"/>
     </row>
-    <row r="92" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="98"/>
       <c r="B92" s="99" t="s">
         <v>516</v>
@@ -7413,7 +7415,7 @@
       </c>
       <c r="Q92" s="101"/>
     </row>
-    <row r="93" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="188"/>
       <c r="B93" s="37"/>
       <c r="C93" s="37"/>
@@ -7432,7 +7434,7 @@
       <c r="P93" s="6"/>
       <c r="Q93" s="84"/>
     </row>
-    <row r="94" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="254" t="s">
         <v>442</v>
       </c>
@@ -7455,7 +7457,7 @@
       <c r="P94" s="6"/>
       <c r="Q94" s="84"/>
     </row>
-    <row r="95" spans="1:17" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A95" s="65" t="s">
         <v>443</v>
       </c>
@@ -7504,7 +7506,7 @@
       </c>
       <c r="Q95" s="18"/>
     </row>
-    <row r="96" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15"/>
       <c r="B96" s="10" t="s">
         <v>446</v>
@@ -7547,7 +7549,7 @@
       </c>
       <c r="Q96" s="51"/>
     </row>
-    <row r="97" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
       <c r="B97" s="10" t="s">
         <v>447</v>
@@ -7590,7 +7592,7 @@
       </c>
       <c r="Q97" s="51"/>
     </row>
-    <row r="98" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15"/>
       <c r="B98" s="10" t="s">
         <v>448</v>
@@ -7633,7 +7635,7 @@
       </c>
       <c r="Q98" s="51"/>
     </row>
-    <row r="99" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="44"/>
       <c r="B99" s="20" t="s">
         <v>540</v>
@@ -7670,7 +7672,7 @@
       </c>
       <c r="Q99" s="51"/>
     </row>
-    <row r="100" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="108"/>
       <c r="B100" s="127"/>
       <c r="C100" s="127"/>
@@ -7697,7 +7699,7 @@
       </c>
       <c r="Q100" s="61"/>
     </row>
-    <row r="101" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="16" t="s">
         <v>450</v>
       </c>
@@ -7740,7 +7742,7 @@
       </c>
       <c r="Q101" s="45"/>
     </row>
-    <row r="102" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="15"/>
       <c r="B102" s="11" t="s">
         <v>452</v>
@@ -7771,7 +7773,7 @@
       <c r="P102" s="6"/>
       <c r="Q102" s="84"/>
     </row>
-    <row r="103" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="15"/>
       <c r="B103" s="11" t="s">
         <v>453</v>
@@ -7816,7 +7818,7 @@
       </c>
       <c r="Q103" s="18"/>
     </row>
-    <row r="104" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="15"/>
       <c r="B104" s="11" t="s">
         <v>454</v>
@@ -7862,7 +7864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15"/>
       <c r="B105" s="11" t="s">
         <v>455</v>
@@ -7905,7 +7907,7 @@
       </c>
       <c r="Q105" s="51"/>
     </row>
-    <row r="106" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="15"/>
       <c r="B106" s="11" t="s">
         <v>456</v>
@@ -7936,7 +7938,7 @@
       <c r="P106" s="20"/>
       <c r="Q106" s="45"/>
     </row>
-    <row r="107" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="15"/>
       <c r="B107" s="11" t="s">
         <v>457</v>
@@ -7969,7 +7971,7 @@
       <c r="P107" s="29"/>
       <c r="Q107" s="70"/>
     </row>
-    <row r="108" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15"/>
       <c r="B108" s="11" t="s">
         <v>499</v>
@@ -8014,7 +8016,7 @@
       </c>
       <c r="Q108" s="18"/>
     </row>
-    <row r="109" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="44"/>
       <c r="B109" s="32" t="s">
         <v>539</v>
@@ -8057,7 +8059,7 @@
       </c>
       <c r="Q109" s="51"/>
     </row>
-    <row r="110" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="108"/>
       <c r="B110" s="127"/>
       <c r="C110" s="127"/>
@@ -8088,7 +8090,7 @@
       </c>
       <c r="Q110" s="51"/>
     </row>
-    <row r="111" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
         <v>461</v>
       </c>
@@ -8133,7 +8135,7 @@
       </c>
       <c r="Q111" s="51"/>
     </row>
-    <row r="112" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="15"/>
       <c r="B112" s="10" t="s">
         <v>463</v>
@@ -8176,7 +8178,7 @@
       </c>
       <c r="Q112" s="45"/>
     </row>
-    <row r="113" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="15"/>
       <c r="B113" s="10" t="s">
         <v>66</v>
@@ -8201,7 +8203,7 @@
       <c r="P113" s="58"/>
       <c r="Q113" s="66"/>
     </row>
-    <row r="114" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="15"/>
       <c r="B114" s="10" t="s">
         <v>66</v>
@@ -8228,7 +8230,7 @@
       <c r="P114" s="60"/>
       <c r="Q114" s="61"/>
     </row>
-    <row r="115" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="44"/>
       <c r="B115" s="20" t="s">
         <v>66</v>
@@ -8267,7 +8269,7 @@
       </c>
       <c r="Q115" s="18"/>
     </row>
-    <row r="116" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="108"/>
       <c r="B116" s="127"/>
       <c r="C116" s="127"/>
@@ -8298,7 +8300,7 @@
       </c>
       <c r="Q116" s="51"/>
     </row>
-    <row r="117" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>474</v>
       </c>
@@ -8345,7 +8347,7 @@
       </c>
       <c r="Q117" s="51"/>
     </row>
-    <row r="118" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="65"/>
       <c r="B118" s="58" t="s">
         <v>66</v>
@@ -8376,7 +8378,7 @@
       <c r="P118" s="10"/>
       <c r="Q118" s="51"/>
     </row>
-    <row r="119" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="62"/>
       <c r="B119" s="60" t="s">
         <v>445</v>
@@ -8411,7 +8413,7 @@
       <c r="P119" s="20"/>
       <c r="Q119" s="45"/>
     </row>
-    <row r="120" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="16"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -8430,7 +8432,7 @@
       <c r="P120" s="29"/>
       <c r="Q120" s="70"/>
     </row>
-    <row r="121" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="44"/>
       <c r="B121" s="20"/>
       <c r="C121" s="20"/>
@@ -8449,7 +8451,7 @@
       <c r="P121" s="7"/>
       <c r="Q121" s="18"/>
     </row>
-    <row r="122" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="255" t="s">
         <v>166</v>
       </c>
@@ -8470,7 +8472,7 @@
       <c r="P122" s="10"/>
       <c r="Q122" s="51"/>
     </row>
-    <row r="123" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="31" t="s">
         <v>167</v>
       </c>
@@ -8507,7 +8509,7 @@
       <c r="P123" s="60"/>
       <c r="Q123" s="61"/>
     </row>
-    <row r="124" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="12"/>
       <c r="B124" s="11" t="s">
         <v>171</v>
@@ -8552,7 +8554,7 @@
       </c>
       <c r="Q124" s="9"/>
     </row>
-    <row r="125" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="12"/>
       <c r="B125" s="11" t="s">
         <v>66</v>
@@ -8591,7 +8593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
       <c r="B126" s="11" t="s">
         <v>66</v>
@@ -8628,7 +8630,7 @@
       </c>
       <c r="Q126" s="13"/>
     </row>
-    <row r="127" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
       <c r="B127" s="11" t="s">
         <v>66</v>
@@ -8665,7 +8667,7 @@
       </c>
       <c r="Q127" s="13"/>
     </row>
-    <row r="128" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
       <c r="B128" s="11" t="s">
         <v>66</v>
@@ -8702,7 +8704,7 @@
       </c>
       <c r="Q128" s="13"/>
     </row>
-    <row r="129" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
       <c r="B129" s="11" t="s">
         <v>178</v>
@@ -8739,7 +8741,7 @@
       </c>
       <c r="Q129" s="13"/>
     </row>
-    <row r="130" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="12"/>
       <c r="B130" s="11" t="s">
         <v>181</v>
@@ -8776,7 +8778,7 @@
       </c>
       <c r="Q130" s="13"/>
     </row>
-    <row r="131" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="12"/>
       <c r="B131" s="11" t="s">
         <v>183</v>
@@ -8815,7 +8817,7 @@
       </c>
       <c r="Q131" s="51"/>
     </row>
-    <row r="132" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="12"/>
       <c r="B132" s="11" t="s">
         <v>188</v>
@@ -8852,7 +8854,7 @@
       </c>
       <c r="Q132" s="45"/>
     </row>
-    <row r="133" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="12"/>
       <c r="B133" s="11" t="s">
         <v>191</v>
@@ -8877,7 +8879,7 @@
       <c r="P133" s="29"/>
       <c r="Q133" s="70"/>
     </row>
-    <row r="134" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="22"/>
       <c r="B134" s="32" t="s">
         <v>194</v>
@@ -8912,7 +8914,7 @@
       </c>
       <c r="Q134" s="9"/>
     </row>
-    <row r="135" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="55"/>
       <c r="B135" s="56"/>
       <c r="C135" s="56"/>
@@ -8939,7 +8941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="31" t="s">
         <v>438</v>
       </c>
@@ -8968,7 +8970,7 @@
       </c>
       <c r="Q136" s="13"/>
     </row>
-    <row r="137" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="12"/>
       <c r="B137" s="10" t="s">
         <v>66</v>
@@ -9001,7 +9003,7 @@
       </c>
       <c r="Q137" s="13"/>
     </row>
-    <row r="138" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="15"/>
       <c r="B138" s="10" t="s">
         <v>66</v>
@@ -9036,7 +9038,7 @@
         <v>4542</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="15"/>
       <c r="B139" s="86" t="s">
         <v>329</v>
@@ -9079,7 +9081,7 @@
       </c>
       <c r="Q139" s="13"/>
     </row>
-    <row r="140" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="108"/>
       <c r="B140" s="86" t="s">
         <v>389</v>
@@ -9122,7 +9124,7 @@
       </c>
       <c r="Q140" s="13"/>
     </row>
-    <row r="141" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="94"/>
       <c r="B141" s="86" t="s">
         <v>508</v>
@@ -9165,7 +9167,7 @@
       </c>
       <c r="Q141" s="13"/>
     </row>
-    <row r="142" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="94"/>
       <c r="B142" s="86" t="s">
         <v>509</v>
@@ -9208,7 +9210,7 @@
       </c>
       <c r="Q142" s="17"/>
     </row>
-    <row r="143" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="98"/>
       <c r="B143" s="99" t="s">
         <v>510</v>
@@ -9239,7 +9241,7 @@
       <c r="P143" s="128"/>
       <c r="Q143" s="70"/>
     </row>
-    <row r="144" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="65"/>
       <c r="B144" s="58"/>
       <c r="C144" s="58"/>
@@ -9272,7 +9274,7 @@
       </c>
       <c r="Q144" s="93"/>
     </row>
-    <row r="145" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="16" t="s">
         <v>393</v>
       </c>
@@ -9317,7 +9319,7 @@
       </c>
       <c r="Q145" s="96"/>
     </row>
-    <row r="146" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="15"/>
       <c r="B146" s="10" t="s">
         <v>395</v>
@@ -9360,7 +9362,7 @@
       </c>
       <c r="Q146" s="96"/>
     </row>
-    <row r="147" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="62"/>
       <c r="B147" s="60" t="s">
         <v>66</v>
@@ -9381,7 +9383,7 @@
       <c r="P147" s="10"/>
       <c r="Q147" s="51"/>
     </row>
-    <row r="148" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="62"/>
       <c r="B148" s="60" t="s">
         <v>66</v>
@@ -9402,7 +9404,7 @@
       <c r="P148" s="20"/>
       <c r="Q148" s="45"/>
     </row>
-    <row r="149" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="44"/>
       <c r="B149" s="20" t="s">
         <v>66</v>
@@ -9423,7 +9425,7 @@
       <c r="P149" s="29"/>
       <c r="Q149" s="70"/>
     </row>
-    <row r="150" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="63"/>
       <c r="B150" s="29"/>
       <c r="C150" s="29"/>
@@ -9456,7 +9458,7 @@
       </c>
       <c r="Q150" s="93"/>
     </row>
-    <row r="151" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="31" t="s">
         <v>202</v>
       </c>
@@ -9503,7 +9505,7 @@
       </c>
       <c r="Q151" s="51"/>
     </row>
-    <row r="152" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
         <v>0</v>
       </c>
@@ -9540,7 +9542,7 @@
       <c r="P152" s="54"/>
       <c r="Q152" s="51"/>
     </row>
-    <row r="153" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
       <c r="B153" s="11" t="s">
         <v>215</v>
@@ -9585,7 +9587,7 @@
       </c>
       <c r="Q153" s="96"/>
     </row>
-    <row r="154" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="12"/>
       <c r="B154" s="11" t="s">
         <v>220</v>
@@ -9622,7 +9624,7 @@
       </c>
       <c r="Q154" s="101"/>
     </row>
-    <row r="155" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="12"/>
       <c r="B155" s="11" t="s">
         <v>223</v>
@@ -9647,7 +9649,7 @@
       <c r="P155" s="58"/>
       <c r="Q155" s="66"/>
     </row>
-    <row r="156" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="12"/>
       <c r="B156" s="11" t="s">
         <v>225</v>
@@ -9674,7 +9676,7 @@
       <c r="P156" s="261"/>
       <c r="Q156" s="262"/>
     </row>
-    <row r="157" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="62"/>
       <c r="B157" s="88" t="s">
         <v>226</v>
@@ -9713,7 +9715,7 @@
       </c>
       <c r="Q157" s="40"/>
     </row>
-    <row r="158" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="44"/>
       <c r="B158" s="20"/>
       <c r="C158" s="20"/>
@@ -9745,7 +9747,7 @@
         <v>4526</v>
       </c>
     </row>
-    <row r="159" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="65"/>
       <c r="B159" s="58"/>
       <c r="C159" s="58"/>
@@ -9776,7 +9778,7 @@
       </c>
       <c r="Q159" s="26"/>
     </row>
-    <row r="160" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="259" t="s">
         <v>344</v>
       </c>
@@ -9809,7 +9811,7 @@
       </c>
       <c r="Q160" s="26"/>
     </row>
-    <row r="161" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="31" t="s">
         <v>439</v>
       </c>
@@ -9856,7 +9858,7 @@
       </c>
       <c r="Q161" s="26"/>
     </row>
-    <row r="162" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="206"/>
       <c r="B162" s="170"/>
       <c r="C162" s="170"/>
@@ -9887,7 +9889,7 @@
       </c>
       <c r="Q162" s="26"/>
     </row>
-    <row r="163" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" s="47" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="31" t="s">
         <v>346</v>
       </c>
@@ -10349,7 +10351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="15"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -10382,7 +10384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="148" t="s">
         <v>344</v>
       </c>
@@ -10403,7 +10405,7 @@
       <c r="P176" s="37"/>
       <c r="Q176" s="80"/>
     </row>
-    <row r="177" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="153" t="s">
         <v>1</v>
       </c>
@@ -10440,7 +10442,7 @@
       <c r="P177" s="60"/>
       <c r="Q177" s="61"/>
     </row>
-    <row r="178" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="31" t="s">
         <v>179</v>
       </c>
@@ -10489,7 +10491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="12"/>
       <c r="B179" s="24">
         <v>1126</v>
@@ -10534,7 +10536,7 @@
         <v>4894</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="12"/>
       <c r="B180" s="24" t="s">
         <v>185</v>
@@ -10579,7 +10581,7 @@
       </c>
       <c r="Q180" s="26"/>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="12"/>
       <c r="B181" s="24" t="s">
         <v>189</v>
@@ -10622,7 +10624,7 @@
       </c>
       <c r="Q181" s="26"/>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="12"/>
       <c r="B182" s="24" t="s">
         <v>192</v>
@@ -10665,7 +10667,7 @@
       </c>
       <c r="Q182" s="26"/>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="12"/>
       <c r="B183" s="24" t="s">
         <v>195</v>
@@ -10712,7 +10714,7 @@
         <v>4657</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="12"/>
       <c r="B184" s="24" t="s">
         <v>198</v>
@@ -10755,7 +10757,7 @@
       </c>
       <c r="Q184" s="26"/>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="12"/>
       <c r="B185" s="24" t="s">
         <v>205</v>
@@ -10798,7 +10800,7 @@
       </c>
       <c r="Q185" s="26"/>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="12"/>
       <c r="B186" s="24" t="s">
         <v>211</v>
@@ -10841,7 +10843,7 @@
       </c>
       <c r="Q186" s="26"/>
     </row>
-    <row r="187" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="12"/>
       <c r="B187" s="24" t="s">
         <v>217</v>
@@ -10884,7 +10886,7 @@
       </c>
       <c r="Q187" s="28"/>
     </row>
-    <row r="188" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="12"/>
       <c r="B188" s="24" t="s">
         <v>222</v>
@@ -10909,7 +10911,7 @@
       <c r="P188" s="68"/>
       <c r="Q188" s="69"/>
     </row>
-    <row r="189" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="22"/>
       <c r="B189" s="27" t="s">
         <v>224</v>
@@ -10956,7 +10958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="237"/>
       <c r="B190" s="238"/>
       <c r="C190" s="39"/>
@@ -10985,7 +10987,7 @@
       </c>
       <c r="Q190" s="26"/>
     </row>
-    <row r="191" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="148" t="s">
         <v>513</v>
       </c>
@@ -11018,7 +11020,7 @@
       </c>
       <c r="Q191" s="26"/>
     </row>
-    <row r="192" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="42" t="s">
         <v>170</v>
       </c>
@@ -11061,7 +11063,7 @@
       </c>
       <c r="Q192" s="28"/>
     </row>
-    <row r="193" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="12"/>
       <c r="B193" s="24">
         <v>1115</v>
@@ -11092,7 +11094,7 @@
       <c r="P193" s="60"/>
       <c r="Q193" s="61"/>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="12"/>
       <c r="B194" s="24" t="s">
         <v>174</v>
@@ -11131,7 +11133,7 @@
       </c>
       <c r="Q194" s="240"/>
     </row>
-    <row r="195" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="12"/>
       <c r="B195" s="24" t="s">
         <v>176</v>
@@ -11172,7 +11174,7 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="22"/>
       <c r="B196" s="27" t="s">
         <v>177</v>
@@ -11197,7 +11199,7 @@
       <c r="P196" s="29"/>
       <c r="Q196" s="70"/>
     </row>
-    <row r="197" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="159"/>
       <c r="B197" s="211"/>
       <c r="C197" s="24"/>
@@ -11216,7 +11218,7 @@
       <c r="P197" s="10"/>
       <c r="Q197" s="51"/>
     </row>
-    <row r="198" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="148" t="s">
         <v>344</v>
       </c>
@@ -11239,7 +11241,7 @@
       <c r="P198" s="241"/>
       <c r="Q198" s="111"/>
     </row>
-    <row r="199" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A199" s="135" t="s">
         <v>270</v>
       </c>
@@ -11288,7 +11290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="53" t="s">
         <v>0</v>
       </c>
@@ -11335,7 +11337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="53"/>
       <c r="B201" s="24" t="s">
         <v>274</v>
@@ -11382,7 +11384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="53"/>
       <c r="B202" s="24" t="s">
         <v>277</v>
@@ -11427,7 +11429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="53"/>
       <c r="B203" s="24" t="s">
         <v>278</v>
@@ -11472,7 +11474,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="53"/>
       <c r="B204" s="24" t="s">
         <v>280</v>
@@ -11503,7 +11505,7 @@
       <c r="P204" s="58"/>
       <c r="Q204" s="66"/>
     </row>
-    <row r="205" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="53"/>
       <c r="B205" s="24" t="s">
         <v>281</v>
@@ -11536,7 +11538,7 @@
       <c r="P205" s="211"/>
       <c r="Q205" s="191"/>
     </row>
-    <row r="206" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="53"/>
       <c r="B206" s="24" t="s">
         <v>284</v>
@@ -11575,7 +11577,7 @@
       </c>
       <c r="Q206" s="247"/>
     </row>
-    <row r="207" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="53"/>
       <c r="B207" s="24" t="s">
         <v>285</v>
@@ -11600,7 +11602,7 @@
       <c r="P207" s="58"/>
       <c r="Q207" s="66"/>
     </row>
-    <row r="208" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="53"/>
       <c r="B208" s="24" t="s">
         <v>286</v>
@@ -11627,7 +11629,7 @@
       <c r="P208" s="6"/>
       <c r="Q208" s="84"/>
     </row>
-    <row r="209" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="76" t="s">
         <v>0</v>
       </c>
@@ -11668,7 +11670,7 @@
       </c>
       <c r="Q209" s="40"/>
     </row>
-    <row r="210" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="248"/>
       <c r="B210" s="243"/>
       <c r="C210" s="243"/>
@@ -11701,7 +11703,7 @@
       </c>
       <c r="Q210" s="28"/>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="250" t="s">
         <v>227</v>
       </c>
@@ -11736,7 +11738,7 @@
       <c r="P211" s="10"/>
       <c r="Q211" s="51"/>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
         <v>228</v>
       </c>
@@ -11769,7 +11771,7 @@
       <c r="P212" s="10"/>
       <c r="Q212" s="51"/>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="12"/>
       <c r="B213" s="24" t="s">
         <v>233</v>
@@ -11802,7 +11804,7 @@
       <c r="P213" s="10"/>
       <c r="Q213" s="51"/>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
       <c r="B214" s="24" t="s">
         <v>236</v>
@@ -11833,7 +11835,7 @@
       <c r="P214" s="10"/>
       <c r="Q214" s="51"/>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="12"/>
       <c r="B215" s="24" t="s">
         <v>237</v>
@@ -11864,7 +11866,7 @@
       <c r="P215" s="10"/>
       <c r="Q215" s="51"/>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="12"/>
       <c r="B216" s="24" t="s">
         <v>241</v>
@@ -11895,7 +11897,7 @@
       <c r="P216" s="10"/>
       <c r="Q216" s="51"/>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="12"/>
       <c r="B217" s="24" t="s">
         <v>247</v>
@@ -11926,7 +11928,7 @@
       <c r="P217" s="10"/>
       <c r="Q217" s="51"/>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="12"/>
       <c r="B218" s="24" t="s">
         <v>252</v>
@@ -11957,7 +11959,7 @@
       <c r="P218" s="10"/>
       <c r="Q218" s="51"/>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="12"/>
       <c r="B219" s="24" t="s">
         <v>256</v>
@@ -11988,7 +11990,7 @@
       <c r="P219" s="10"/>
       <c r="Q219" s="51"/>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="12"/>
       <c r="B220" s="24" t="s">
         <v>262</v>
@@ -12019,7 +12021,7 @@
       <c r="P220" s="10"/>
       <c r="Q220" s="51"/>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="12"/>
       <c r="B221" s="24" t="s">
         <v>265</v>
@@ -12042,7 +12044,7 @@
       <c r="P221" s="10"/>
       <c r="Q221" s="51"/>
     </row>
-    <row r="222" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="22"/>
       <c r="B222" s="27" t="s">
         <v>267</v>
@@ -12073,7 +12075,7 @@
       <c r="P222" s="10"/>
       <c r="Q222" s="51"/>
     </row>
-    <row r="223" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -12092,7 +12094,7 @@
       <c r="P223" s="264"/>
       <c r="Q223" s="265"/>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="266"/>
       <c r="B224" s="266"/>
       <c r="C224" s="266"/>
@@ -12111,7 +12113,7 @@
       <c r="P224" s="266"/>
       <c r="Q224" s="266"/>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="266"/>
       <c r="B225" s="266"/>
       <c r="C225" s="266"/>
@@ -12130,7 +12132,7 @@
       <c r="P225" s="266"/>
       <c r="Q225" s="266"/>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
@@ -12149,7 +12151,7 @@
       <c r="P226" s="266"/>
       <c r="Q226" s="266"/>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227"/>
       <c r="B227"/>
       <c r="C227"/>
@@ -12168,7 +12170,7 @@
       <c r="P227"/>
       <c r="Q227"/>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228"/>
       <c r="B228"/>
       <c r="C228"/>
@@ -12187,7 +12189,7 @@
       <c r="P228"/>
       <c r="Q228"/>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229"/>
       <c r="B229"/>
       <c r="C229"/>
@@ -12206,7 +12208,7 @@
       <c r="P229"/>
       <c r="Q229"/>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230"/>
       <c r="B230"/>
       <c r="C230"/>
@@ -12225,7 +12227,7 @@
       <c r="P230"/>
       <c r="Q230"/>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231"/>
       <c r="B231"/>
       <c r="C231"/>
@@ -12244,7 +12246,7 @@
       <c r="P231"/>
       <c r="Q231"/>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232"/>
       <c r="B232"/>
       <c r="C232"/>
@@ -12263,7 +12265,7 @@
       <c r="P232"/>
       <c r="Q232"/>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233"/>
       <c r="B233"/>
       <c r="C233"/>
@@ -12282,7 +12284,7 @@
       <c r="P233"/>
       <c r="Q233"/>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234"/>
       <c r="B234"/>
       <c r="C234"/>
@@ -12301,7 +12303,7 @@
       <c r="P234"/>
       <c r="Q234"/>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235"/>
       <c r="B235"/>
       <c r="C235"/>
@@ -12320,7 +12322,7 @@
       <c r="P235"/>
       <c r="Q235"/>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
@@ -12339,7 +12341,7 @@
       <c r="P236"/>
       <c r="Q236"/>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B237"/>
       <c r="C237"/>
       <c r="D237"/>
@@ -12357,7 +12359,7 @@
       <c r="P237"/>
       <c r="Q237"/>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F238" s="1"/>
       <c r="I238"/>
       <c r="J238"/>
@@ -12369,7 +12371,7 @@
       <c r="P238"/>
       <c r="Q238"/>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239"/>
       <c r="B239"/>
       <c r="C239"/>
@@ -12388,7 +12390,7 @@
       <c r="P239"/>
       <c r="Q239"/>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240"/>
       <c r="B240"/>
       <c r="C240"/>
@@ -12406,7 +12408,7 @@
       <c r="P240"/>
       <c r="Q240"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241"/>
       <c r="B241"/>
       <c r="C241"/>
@@ -12416,7 +12418,7 @@
       <c r="G241"/>
       <c r="H241"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242"/>
       <c r="B242"/>
       <c r="C242"/>
@@ -12426,7 +12428,7 @@
       <c r="G242"/>
       <c r="H242"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243"/>
       <c r="B243"/>
       <c r="C243"/>
@@ -12436,7 +12438,7 @@
       <c r="G243"/>
       <c r="H243"/>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244"/>
       <c r="B244"/>
       <c r="C244"/>
@@ -12446,7 +12448,7 @@
       <c r="G244"/>
       <c r="H244"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245"/>
       <c r="B245"/>
       <c r="C245"/>
@@ -12456,7 +12458,7 @@
       <c r="G245"/>
       <c r="H245"/>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246"/>
       <c r="B246"/>
       <c r="C246"/>
@@ -12478,9 +12480,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -12494,9 +12496,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
